--- a/dataset/charge_salaire_cosyappart.xlsx
+++ b/dataset/charge_salaire_cosyappart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbimo\GeLo\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbimo\GeLo\geloapp2024\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFF2B47-8697-46C9-B2C1-1E10222CC5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492A3864-B5F0-4809-80C9-0E7AFA342713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21390" yWindow="765" windowWidth="17280" windowHeight="8880" xr2:uid="{5E008102-369B-44CE-8AE1-9E6A6729365F}"/>
+    <workbookView xWindow="-28920" yWindow="-3225" windowWidth="29040" windowHeight="15720" xr2:uid="{5E008102-369B-44CE-8AE1-9E6A6729365F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>electricite</t>
   </si>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CF88EB-BE75-4BDE-8A21-78781E2F4004}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,6 +603,76 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>880</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45536</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
